--- a/Apps & Progs.xlsx
+++ b/Apps & Progs.xlsx
@@ -13,7 +13,7 @@
     <sheet name="IT" sheetId="6" r:id="rId4"/>
     <sheet name="Games" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="978">
   <si>
     <t>Name</t>
   </si>
@@ -2943,6 +2943,18 @@
   </si>
   <si>
     <t>https://lottiefiles.com/what-is-lottie</t>
+  </si>
+  <si>
+    <t>Complete Ear Trainer</t>
+  </si>
+  <si>
+    <t>Binary Guilt</t>
+  </si>
+  <si>
+    <t>Couleur dans le store différente (diapason blanc en avant-plan)</t>
+  </si>
+  <si>
+    <t>Stocard</t>
   </si>
 </sst>
 </file>
@@ -3057,7 +3069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3113,6 +3125,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5205,8 +5218,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:J59" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:J61" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J61"/>
   <sortState ref="A2:I55">
     <sortCondition ref="A1:A55"/>
   </sortState>
@@ -5513,11 +5526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6591,6 +6604,45 @@
       <c r="H59" s="28"/>
       <c r="I59" s="27"/>
       <c r="J59" s="27"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="27" t="s">
+        <v>974</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>975</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61" s="27" t="s">
+        <v>977</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="D61" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Apps & Progs.xlsx
+++ b/Apps & Progs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="994">
   <si>
     <t>Name</t>
   </si>
@@ -2955,6 +2955,54 @@
   </si>
   <si>
     <t>Stocard</t>
+  </si>
+  <si>
+    <t>Freelitics</t>
+  </si>
+  <si>
+    <t>B&amp;W</t>
+  </si>
+  <si>
+    <t>Bring</t>
+  </si>
+  <si>
+    <t>135 To Do List</t>
+  </si>
+  <si>
+    <t>Bring! Labs AG</t>
+  </si>
+  <si>
+    <t>Big-Medium-Small</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Daily Tasks</t>
+  </si>
+  <si>
+    <t>Tasks without time attached are in "Space"</t>
+  </si>
+  <si>
+    <t>Do It Now</t>
+  </si>
+  <si>
+    <t>Gamified</t>
+  </si>
+  <si>
+    <t>Do this!</t>
+  </si>
+  <si>
+    <t>Black &amp; white</t>
+  </si>
+  <si>
+    <t>Simple, partage de listes</t>
+  </si>
+  <si>
+    <t>Tasks earn XP to lvl up</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -3069,7 +3117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3126,6 +3174,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5218,8 +5267,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:J61" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A1:J68" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J68"/>
   <sortState ref="A2:I55">
     <sortCondition ref="A1:A55"/>
   </sortState>
@@ -5526,21 +5575,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="1" customWidth="1"/>
@@ -6643,6 +6692,152 @@
       <c r="H61" s="28"/>
       <c r="I61" s="27"/>
       <c r="J61" s="27"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>979</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="27" t="s">
+        <v>980</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="27" t="s">
+        <v>981</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>983</v>
+      </c>
+      <c r="G64" s="28" t="s">
+        <v>984</v>
+      </c>
+      <c r="H64" s="28">
+        <v>0</v>
+      </c>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="27" t="s">
+        <v>985</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="27" t="s">
+        <v>987</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>988</v>
+      </c>
+      <c r="G66" s="28" t="s">
+        <v>984</v>
+      </c>
+      <c r="H66" s="28"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="27" t="s">
+        <v>989</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>990</v>
+      </c>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="27" t="s">
+        <v>993</v>
+      </c>
+      <c r="J67" s="27" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
